--- a/00_プロジェクト管理/KPTによる振り返り結果.xlsx
+++ b/00_プロジェクト管理/KPTによる振り返り結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2a45\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Repitition1\00_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="11_C1443F8898BE9B650007DAE08B10A06C2C73FD7E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B79948FB-430C-42D7-9495-3B5E6A4AF95A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B14BD2-A2B3-4B41-B649-CD7CED1D2414}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>KEEP</t>
   </si>
@@ -45,9 +43,6 @@
   </si>
   <si>
     <t>第1反復</t>
-  </si>
-  <si>
-    <t>・皆で相談しながら計画を立てた</t>
   </si>
   <si>
     <t>(新しく取り組む事)</t>
@@ -61,9 +56,6 @@
 必要なこと)</t>
   </si>
   <si>
-    <t>・計画通りに進まなかった</t>
-  </si>
-  <si>
     <t>・作業に詰まったときに、即座に対応してくれたこと(Git)</t>
   </si>
   <si>
@@ -98,13 +90,52 @@
   </si>
   <si>
     <t>・コードの説明をするのが難しかった</t>
+  </si>
+  <si>
+    <t>・皆で相談しながら計画を立てた(個人のできる事が明確に出来た)</t>
+    <rPh sb="16" eb="18">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・計画通りに進まなかった(ガントチャートに休憩を含めていなかった)</t>
+    <rPh sb="21" eb="23">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・休憩を含めて計画をたてる</t>
+    <rPh sb="1" eb="3">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,13 +281,55 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -267,48 +340,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,277 +655,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H31"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="3" max="8" width="9" style="16"/>
+    <col min="3" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75"/>
-    <row r="4" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="4" t="s">
+      <c r="B12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="8" t="s">
+      <c r="B18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="8" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="8" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="8" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75"/>
-    <row r="25" spans="1:8" ht="18.75"/>
-    <row r="26" spans="1:8" ht="18.75"/>
-    <row r="27" spans="1:8" ht="18.75"/>
-    <row r="28" spans="1:8" ht="18.75"/>
-    <row r="29" spans="1:8" ht="18.75"/>
-    <row r="30" spans="1:8" ht="18.75"/>
-    <row r="31" spans="1:8" ht="18.75"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="B4:B11"/>
@@ -911,19 +946,10 @@
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -934,15 +960,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1126,6 +1143,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4C3F77C-6641-4E5B-862B-AE11886290DB}">
   <ds:schemaRefs>
@@ -1136,14 +1162,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58E19D10-DF54-4649-845C-508587411812}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C73360C7-F38D-4E6C-B223-9EB62426A198}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1159,4 +1177,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58E19D10-DF54-4649-845C-508587411812}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>